--- a/Age at hatching data.xlsx
+++ b/Age at hatching data.xlsx
@@ -12,8 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16210" windowHeight="7060" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="TA farm" sheetId="1" r:id="rId1"/>
+    <sheet name="TA wild" sheetId="3" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>T</t>
   </si>
@@ -68,6 +69,9 @@
   <si>
     <t>Time between hatching and transfer</t>
   </si>
+  <si>
+    <t>T°C</t>
+  </si>
 </sst>
 </file>
 
@@ -102,9 +106,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -178,7 +183,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$1</c:f>
+              <c:f>'TA farm'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -211,49 +216,49 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$A$2:$A$12</c:f>
+              <c:f>'TA farm'!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>273.34999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>274.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8</c:v>
+                  <c:v>277.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>279.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3</c:v>
+                  <c:v>279.45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>279.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.4</c:v>
+                  <c:v>280.54999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.4</c:v>
+                  <c:v>282.54999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>281.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>283.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>285.14999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$B$2:$B$12</c:f>
+              <c:f>'TA farm'!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -536,7 +541,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$D$1</c:f>
+              <c:f>'TA farm'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -567,85 +572,123 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.24119772528433947"/>
+                  <c:y val="3.2031839516832465E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$C$2:$C$12</c:f>
+              <c:f>'TA farm'!$D$4:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>3.5977693829825508E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>3.5823034210997673E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20833333333333334</c:v>
+                  <c:v>3.5784576847378781E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>3.5823034210997673E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15873015873015872</c:v>
+                  <c:v>3.5644270183567998E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>3.5391966023712623E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13513513513513511</c:v>
+                  <c:v>3.556820202738752E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10638297872340426</c:v>
+                  <c:v>3.5316969803990822E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>3.5069261792039282E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$D$2:$D$12</c:f>
+              <c:f>'TA farm'!$E$4:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-2.4265112613645754</c:v>
+                  <c:v>-2.0681858617461617</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.3159703454569178</c:v>
+                  <c:v>-1.9637878273455553</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.0681858617461617</c:v>
+                  <c:v>-1.9444826721501687</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.9637878273455553</c:v>
+                  <c:v>-1.9590413923210936</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.9444826721501687</c:v>
+                  <c:v>-1.8808135922807914</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.9590413923210936</c:v>
+                  <c:v>-1.7242758696007892</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.8808135922807914</c:v>
+                  <c:v>-1.7993405494535817</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.7242758696007892</c:v>
+                  <c:v>-1.6919651027673603</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.7993405494535817</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.6919651027673603</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>-1.576916955965207</c:v>
                 </c:pt>
               </c:numCache>
@@ -838,6 +881,881 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TA wild'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'TA wild'!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>273.34999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>274.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>275.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>277.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>279.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>281.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>283.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>285.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>277.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>279.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>281.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>283.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>285.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>277.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>279.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>279.45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>279.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>279.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>280.45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>282.54999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>281.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>277.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'TA wild'!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A932-4E33-BC38-2CEBB9166A00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="302106376"/>
+        <c:axId val="302101456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="302106376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="302101456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="302101456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="302106376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TA wild'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ln(1/a)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'TA wild'!$D$5:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3.608154429009562E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5823034210997673E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.556820202738752E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5316969803990822E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5069261792039282E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.608154429009562E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5823034210997673E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.556820202738752E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5316969803990822E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5069261792039282E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5977693829825508E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5823034210997673E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5784576847378781E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5823034210997673E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5784576847378781E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5656979853806382E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5391966023712623E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5555555555555557E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5977693829825508E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'TA wild'!$E$5:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-2.0899051114393981</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.919078092376074</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.7923916894982539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.6020599913279623</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.0530784434834199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.8692317197309762</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.7558748556724915</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.6434526764861874</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.5314789170422551</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.0606978403536118</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.9590413923210936</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.9395192526186185</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.968482948553935</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.9444826721501687</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.8808135922807914</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.7323937598229686</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.7923916894982539</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.0374264979406238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE34-4092-A452-89A280D4940C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="415833280"/>
+        <c:axId val="415840824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="415833280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415840824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="415840824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415833280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -918,6 +1836,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1950,17 +2948,1049 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
@@ -1984,16 +4014,81 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>31749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2278,205 +4373,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.2</v>
       </c>
       <c r="B2">
+        <f>A2+273.15</f>
+        <v>273.34999999999997</v>
+      </c>
+      <c r="C2">
         <v>267</v>
       </c>
-      <c r="C2">
-        <f>1/A2</f>
-        <v>5</v>
-      </c>
       <c r="D2">
-        <f>LOG(1/B2)</f>
+        <f>1/B2</f>
+        <v>3.6583135174684477E-3</v>
+      </c>
+      <c r="E2">
+        <f>LOG(1/C2)</f>
         <v>-2.4265112613645754</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
+        <f t="shared" ref="B3:B12" si="0">A3+273.15</f>
+        <v>274.14999999999998</v>
+      </c>
+      <c r="C3">
         <v>207</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C9" si="0">1/A3</f>
-        <v>1</v>
-      </c>
       <c r="D3">
-        <f t="shared" ref="D3:D9" si="1">LOG(1/B3)</f>
+        <f t="shared" ref="D3:D9" si="1">1/B3</f>
+        <v>3.6476381542950944E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="2">LOG(1/C3)</f>
         <v>-2.3159703454569178</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4.8</v>
       </c>
       <c r="B4">
+        <f t="shared" si="0"/>
+        <v>277.95</v>
+      </c>
+      <c r="C4">
         <v>117</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0.20833333333333334</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
+        <v>3.5977693829825508E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
         <v>-2.0681858617461617</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5">
+        <f t="shared" si="0"/>
+        <v>279.14999999999998</v>
+      </c>
+      <c r="C5">
         <v>92</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
+        <v>3.5823034210997673E-3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
         <v>-1.9637878273455553</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6.3</v>
       </c>
       <c r="B6">
+        <f t="shared" si="0"/>
+        <v>279.45</v>
+      </c>
+      <c r="C6">
         <v>88</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0.15873015873015872</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
+        <v>3.5784576847378781E-3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
         <v>-1.9444826721501687</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
+        <f t="shared" si="0"/>
+        <v>279.14999999999998</v>
+      </c>
+      <c r="C7">
         <v>91</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
+        <v>3.5823034210997673E-3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
         <v>-1.9590413923210936</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7.4</v>
       </c>
       <c r="B8">
+        <f t="shared" si="0"/>
+        <v>280.54999999999995</v>
+      </c>
+      <c r="C8">
         <v>76</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0.13513513513513511</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
+        <v>3.5644270183567998E-3</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
         <v>-1.8808135922807914</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9.4</v>
       </c>
       <c r="B9">
+        <f t="shared" si="0"/>
+        <v>282.54999999999995</v>
+      </c>
+      <c r="C9">
         <v>53</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0.10638297872340426</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
+        <v>3.5391966023712623E-3</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
         <v>-1.7242758696007892</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
+        <f t="shared" si="0"/>
+        <v>281.14999999999998</v>
+      </c>
+      <c r="C10">
         <f>504/8</f>
         <v>63</v>
       </c>
-      <c r="C10">
-        <f t="shared" ref="C10:C12" si="2">1/A10</f>
-        <v>0.125</v>
-      </c>
       <c r="D10">
-        <f t="shared" ref="D10:D12" si="3">LOG(1/B10)</f>
+        <f t="shared" ref="D10:D12" si="3">1/B10</f>
+        <v>3.556820202738752E-3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E12" si="4">LOG(1/C10)</f>
         <v>-1.7993405494535817</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
+        <f t="shared" si="0"/>
+        <v>283.14999999999998</v>
+      </c>
+      <c r="C11">
         <f>492/10</f>
         <v>49.2</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
       <c r="D11">
         <f t="shared" si="3"/>
+        <v>3.5316969803990822E-3</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="4"/>
         <v>-1.6919651027673603</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12">
+        <f t="shared" si="0"/>
+        <v>285.14999999999998</v>
+      </c>
+      <c r="C12">
         <f>453/12</f>
         <v>37.75</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="2"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
       <c r="D12">
         <f t="shared" si="3"/>
+        <v>3.5069261792039282E-3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
         <v>-1.576916955965207</v>
+      </c>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G30">
+        <v>5383</v>
       </c>
     </row>
   </sheetData>
@@ -2487,9 +4634,490 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.2</v>
+      </c>
+      <c r="B2">
+        <f>A2+273.15</f>
+        <v>273.34999999999997</v>
+      </c>
+      <c r="C2">
+        <v>255</v>
+      </c>
+      <c r="D2">
+        <f>1/B2</f>
+        <v>3.6583135174684477E-3</v>
+      </c>
+      <c r="E2">
+        <f>LOG(1/C2)</f>
+        <v>-2.406540180433955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B23" si="0">A3+273.15</f>
+        <v>274.14999999999998</v>
+      </c>
+      <c r="C3">
+        <v>210.75</v>
+      </c>
+      <c r="D3">
+        <f>1/B3</f>
+        <v>3.6476381542950944E-3</v>
+      </c>
+      <c r="E3">
+        <f>LOG(1/C3)</f>
+        <v>-2.3237675832967799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>275.14999999999998</v>
+      </c>
+      <c r="C4">
+        <v>157</v>
+      </c>
+      <c r="D4">
+        <f>1/B4</f>
+        <v>3.6343812465927678E-3</v>
+      </c>
+      <c r="E4">
+        <f>LOG(1/C4)</f>
+        <v>-2.1958996524092336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>277.14999999999998</v>
+      </c>
+      <c r="C5">
+        <v>123</v>
+      </c>
+      <c r="D5">
+        <f>1/B5</f>
+        <v>3.608154429009562E-3</v>
+      </c>
+      <c r="E5">
+        <f>LOG(1/C5)</f>
+        <v>-2.0899051114393981</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>279.14999999999998</v>
+      </c>
+      <c r="C6">
+        <v>83</v>
+      </c>
+      <c r="D6">
+        <f>1/B6</f>
+        <v>3.5823034210997673E-3</v>
+      </c>
+      <c r="E6">
+        <f>LOG(1/C6)</f>
+        <v>-1.919078092376074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>281.14999999999998</v>
+      </c>
+      <c r="C7">
+        <v>62</v>
+      </c>
+      <c r="D7">
+        <f>1/B7</f>
+        <v>3.556820202738752E-3</v>
+      </c>
+      <c r="E7">
+        <f>LOG(1/C7)</f>
+        <v>-1.7923916894982539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>283.14999999999998</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <f>1/B8</f>
+        <v>3.5316969803990822E-3</v>
+      </c>
+      <c r="E8">
+        <f>LOG(1/C8)</f>
+        <v>-1.6989700043360187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>285.14999999999998</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <f>1/B9</f>
+        <v>3.5069261792039282E-3</v>
+      </c>
+      <c r="E9">
+        <f>LOG(1/C9)</f>
+        <v>-1.6020599913279623</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>277.14999999999998</v>
+      </c>
+      <c r="C10">
+        <v>113</v>
+      </c>
+      <c r="D10">
+        <f>1/B10</f>
+        <v>3.608154429009562E-3</v>
+      </c>
+      <c r="E10">
+        <f>LOG(1/C10)</f>
+        <v>-2.0530784434834199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>279.14999999999998</v>
+      </c>
+      <c r="C11">
+        <v>74</v>
+      </c>
+      <c r="D11">
+        <f>1/B11</f>
+        <v>3.5823034210997673E-3</v>
+      </c>
+      <c r="E11">
+        <f>LOG(1/C11)</f>
+        <v>-1.8692317197309762</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>281.14999999999998</v>
+      </c>
+      <c r="C12">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <f>1/B12</f>
+        <v>3.556820202738752E-3</v>
+      </c>
+      <c r="E12">
+        <f>LOG(1/C12)</f>
+        <v>-1.7558748556724915</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>283.14999999999998</v>
+      </c>
+      <c r="C13">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <f>1/B13</f>
+        <v>3.5316969803990822E-3</v>
+      </c>
+      <c r="E13">
+        <f>LOG(1/C13)</f>
+        <v>-1.6434526764861874</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>285.14999999999998</v>
+      </c>
+      <c r="C14">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <f>1/B14</f>
+        <v>3.5069261792039282E-3</v>
+      </c>
+      <c r="E14">
+        <f>LOG(1/C14)</f>
+        <v>-1.5314789170422551</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>4.8</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>277.95</v>
+      </c>
+      <c r="C15">
+        <v>115</v>
+      </c>
+      <c r="D15">
+        <f>1/B15</f>
+        <v>3.5977693829825508E-3</v>
+      </c>
+      <c r="E15">
+        <f>LOG(1/C15)</f>
+        <v>-2.0606978403536118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>279.14999999999998</v>
+      </c>
+      <c r="C16">
+        <v>91</v>
+      </c>
+      <c r="D16">
+        <f>1/B16</f>
+        <v>3.5823034210997673E-3</v>
+      </c>
+      <c r="E16">
+        <f>LOG(1/C16)</f>
+        <v>-1.9590413923210936</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>6.3</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>279.45</v>
+      </c>
+      <c r="C17">
+        <v>87</v>
+      </c>
+      <c r="D17">
+        <f>1/B17</f>
+        <v>3.5784576847378781E-3</v>
+      </c>
+      <c r="E17">
+        <f>LOG(1/C17)</f>
+        <v>-1.9395192526186185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>279.14999999999998</v>
+      </c>
+      <c r="C18">
+        <v>93</v>
+      </c>
+      <c r="D18">
+        <f>1/B18</f>
+        <v>3.5823034210997673E-3</v>
+      </c>
+      <c r="E18">
+        <f>LOG(1/C18)</f>
+        <v>-1.968482948553935</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>6.3</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>279.45</v>
+      </c>
+      <c r="C19">
+        <v>88</v>
+      </c>
+      <c r="D19">
+        <f>1/B19</f>
+        <v>3.5784576847378781E-3</v>
+      </c>
+      <c r="E19">
+        <f>LOG(1/C19)</f>
+        <v>-1.9444826721501687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>7.3</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>280.45</v>
+      </c>
+      <c r="C20">
+        <v>76</v>
+      </c>
+      <c r="D20">
+        <f>1/B20</f>
+        <v>3.5656979853806382E-3</v>
+      </c>
+      <c r="E20">
+        <f>LOG(1/C20)</f>
+        <v>-1.8808135922807914</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>9.4</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>282.54999999999995</v>
+      </c>
+      <c r="C21">
+        <v>54</v>
+      </c>
+      <c r="D21">
+        <f>1/B21</f>
+        <v>3.5391966023712623E-3</v>
+      </c>
+      <c r="E21">
+        <f>LOG(1/C21)</f>
+        <v>-1.7323937598229686</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>8.1</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>281.25</v>
+      </c>
+      <c r="C22">
+        <v>62</v>
+      </c>
+      <c r="D22">
+        <f>1/B22</f>
+        <v>3.5555555555555557E-3</v>
+      </c>
+      <c r="E22">
+        <f>LOG(1/C22)</f>
+        <v>-1.7923916894982539</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>4.8</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>277.95</v>
+      </c>
+      <c r="C23">
+        <v>109</v>
+      </c>
+      <c r="D23">
+        <f>1/B23</f>
+        <v>3.5977693829825508E-3</v>
+      </c>
+      <c r="E23">
+        <f>LOG(1/C23)</f>
+        <v>-2.0374264979406238</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I34">
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I35" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>

--- a/Age at hatching data.xlsx
+++ b/Age at hatching data.xlsx
@@ -4376,7 +4376,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4671,11 +4671,11 @@
         <v>255</v>
       </c>
       <c r="D2">
-        <f>1/B2</f>
+        <f t="shared" ref="D2:D23" si="0">1/B2</f>
         <v>3.6583135174684477E-3</v>
       </c>
       <c r="E2">
-        <f>LOG(1/C2)</f>
+        <f t="shared" ref="E2:E23" si="1">LOG(1/C2)</f>
         <v>-2.406540180433955</v>
       </c>
     </row>
@@ -4684,18 +4684,18 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B23" si="0">A3+273.15</f>
+        <f t="shared" ref="B3:B23" si="2">A3+273.15</f>
         <v>274.14999999999998</v>
       </c>
       <c r="C3">
         <v>210.75</v>
       </c>
       <c r="D3">
-        <f>1/B3</f>
+        <f t="shared" si="0"/>
         <v>3.6476381542950944E-3</v>
       </c>
       <c r="E3">
-        <f>LOG(1/C3)</f>
+        <f t="shared" si="1"/>
         <v>-2.3237675832967799</v>
       </c>
     </row>
@@ -4704,18 +4704,18 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>275.14999999999998</v>
       </c>
       <c r="C4">
         <v>157</v>
       </c>
       <c r="D4">
-        <f>1/B4</f>
+        <f t="shared" si="0"/>
         <v>3.6343812465927678E-3</v>
       </c>
       <c r="E4">
-        <f>LOG(1/C4)</f>
+        <f t="shared" si="1"/>
         <v>-2.1958996524092336</v>
       </c>
     </row>
@@ -4724,18 +4724,18 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>277.14999999999998</v>
       </c>
       <c r="C5">
         <v>123</v>
       </c>
       <c r="D5">
-        <f>1/B5</f>
+        <f t="shared" si="0"/>
         <v>3.608154429009562E-3</v>
       </c>
       <c r="E5">
-        <f>LOG(1/C5)</f>
+        <f t="shared" si="1"/>
         <v>-2.0899051114393981</v>
       </c>
     </row>
@@ -4744,18 +4744,18 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>279.14999999999998</v>
       </c>
       <c r="C6">
         <v>83</v>
       </c>
       <c r="D6">
-        <f>1/B6</f>
+        <f t="shared" si="0"/>
         <v>3.5823034210997673E-3</v>
       </c>
       <c r="E6">
-        <f>LOG(1/C6)</f>
+        <f t="shared" si="1"/>
         <v>-1.919078092376074</v>
       </c>
     </row>
@@ -4764,18 +4764,18 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>281.14999999999998</v>
       </c>
       <c r="C7">
         <v>62</v>
       </c>
       <c r="D7">
-        <f>1/B7</f>
+        <f t="shared" si="0"/>
         <v>3.556820202738752E-3</v>
       </c>
       <c r="E7">
-        <f>LOG(1/C7)</f>
+        <f t="shared" si="1"/>
         <v>-1.7923916894982539</v>
       </c>
     </row>
@@ -4784,18 +4784,18 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>283.14999999999998</v>
       </c>
       <c r="C8">
         <v>50</v>
       </c>
       <c r="D8">
-        <f>1/B8</f>
+        <f t="shared" si="0"/>
         <v>3.5316969803990822E-3</v>
       </c>
       <c r="E8">
-        <f>LOG(1/C8)</f>
+        <f t="shared" si="1"/>
         <v>-1.6989700043360187</v>
       </c>
     </row>
@@ -4804,18 +4804,18 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>285.14999999999998</v>
       </c>
       <c r="C9">
         <v>40</v>
       </c>
       <c r="D9">
-        <f>1/B9</f>
+        <f t="shared" si="0"/>
         <v>3.5069261792039282E-3</v>
       </c>
       <c r="E9">
-        <f>LOG(1/C9)</f>
+        <f t="shared" si="1"/>
         <v>-1.6020599913279623</v>
       </c>
     </row>
@@ -4824,18 +4824,18 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>277.14999999999998</v>
       </c>
       <c r="C10">
         <v>113</v>
       </c>
       <c r="D10">
-        <f>1/B10</f>
+        <f t="shared" si="0"/>
         <v>3.608154429009562E-3</v>
       </c>
       <c r="E10">
-        <f>LOG(1/C10)</f>
+        <f t="shared" si="1"/>
         <v>-2.0530784434834199</v>
       </c>
     </row>
@@ -4844,18 +4844,18 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>279.14999999999998</v>
       </c>
       <c r="C11">
         <v>74</v>
       </c>
       <c r="D11">
-        <f>1/B11</f>
+        <f t="shared" si="0"/>
         <v>3.5823034210997673E-3</v>
       </c>
       <c r="E11">
-        <f>LOG(1/C11)</f>
+        <f t="shared" si="1"/>
         <v>-1.8692317197309762</v>
       </c>
     </row>
@@ -4864,18 +4864,18 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>281.14999999999998</v>
       </c>
       <c r="C12">
         <v>57</v>
       </c>
       <c r="D12">
-        <f>1/B12</f>
+        <f t="shared" si="0"/>
         <v>3.556820202738752E-3</v>
       </c>
       <c r="E12">
-        <f>LOG(1/C12)</f>
+        <f t="shared" si="1"/>
         <v>-1.7558748556724915</v>
       </c>
     </row>
@@ -4884,18 +4884,18 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>283.14999999999998</v>
       </c>
       <c r="C13">
         <v>44</v>
       </c>
       <c r="D13">
-        <f>1/B13</f>
+        <f t="shared" si="0"/>
         <v>3.5316969803990822E-3</v>
       </c>
       <c r="E13">
-        <f>LOG(1/C13)</f>
+        <f t="shared" si="1"/>
         <v>-1.6434526764861874</v>
       </c>
     </row>
@@ -4904,18 +4904,18 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>285.14999999999998</v>
       </c>
       <c r="C14">
         <v>34</v>
       </c>
       <c r="D14">
-        <f>1/B14</f>
+        <f t="shared" si="0"/>
         <v>3.5069261792039282E-3</v>
       </c>
       <c r="E14">
-        <f>LOG(1/C14)</f>
+        <f t="shared" si="1"/>
         <v>-1.5314789170422551</v>
       </c>
     </row>
@@ -4924,18 +4924,18 @@
         <v>4.8</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>277.95</v>
       </c>
       <c r="C15">
         <v>115</v>
       </c>
       <c r="D15">
-        <f>1/B15</f>
+        <f t="shared" si="0"/>
         <v>3.5977693829825508E-3</v>
       </c>
       <c r="E15">
-        <f>LOG(1/C15)</f>
+        <f t="shared" si="1"/>
         <v>-2.0606978403536118</v>
       </c>
     </row>
@@ -4944,18 +4944,18 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>279.14999999999998</v>
       </c>
       <c r="C16">
         <v>91</v>
       </c>
       <c r="D16">
-        <f>1/B16</f>
+        <f t="shared" si="0"/>
         <v>3.5823034210997673E-3</v>
       </c>
       <c r="E16">
-        <f>LOG(1/C16)</f>
+        <f t="shared" si="1"/>
         <v>-1.9590413923210936</v>
       </c>
     </row>
@@ -4964,18 +4964,18 @@
         <v>6.3</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>279.45</v>
       </c>
       <c r="C17">
         <v>87</v>
       </c>
       <c r="D17">
-        <f>1/B17</f>
+        <f t="shared" si="0"/>
         <v>3.5784576847378781E-3</v>
       </c>
       <c r="E17">
-        <f>LOG(1/C17)</f>
+        <f t="shared" si="1"/>
         <v>-1.9395192526186185</v>
       </c>
     </row>
@@ -4984,18 +4984,18 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>279.14999999999998</v>
       </c>
       <c r="C18">
         <v>93</v>
       </c>
       <c r="D18">
-        <f>1/B18</f>
+        <f t="shared" si="0"/>
         <v>3.5823034210997673E-3</v>
       </c>
       <c r="E18">
-        <f>LOG(1/C18)</f>
+        <f t="shared" si="1"/>
         <v>-1.968482948553935</v>
       </c>
     </row>
@@ -5004,18 +5004,18 @@
         <v>6.3</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>279.45</v>
       </c>
       <c r="C19">
         <v>88</v>
       </c>
       <c r="D19">
-        <f>1/B19</f>
+        <f t="shared" si="0"/>
         <v>3.5784576847378781E-3</v>
       </c>
       <c r="E19">
-        <f>LOG(1/C19)</f>
+        <f t="shared" si="1"/>
         <v>-1.9444826721501687</v>
       </c>
     </row>
@@ -5024,18 +5024,18 @@
         <v>7.3</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>280.45</v>
       </c>
       <c r="C20">
         <v>76</v>
       </c>
       <c r="D20">
-        <f>1/B20</f>
+        <f t="shared" si="0"/>
         <v>3.5656979853806382E-3</v>
       </c>
       <c r="E20">
-        <f>LOG(1/C20)</f>
+        <f t="shared" si="1"/>
         <v>-1.8808135922807914</v>
       </c>
     </row>
@@ -5044,18 +5044,18 @@
         <v>9.4</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>282.54999999999995</v>
       </c>
       <c r="C21">
         <v>54</v>
       </c>
       <c r="D21">
-        <f>1/B21</f>
+        <f t="shared" si="0"/>
         <v>3.5391966023712623E-3</v>
       </c>
       <c r="E21">
-        <f>LOG(1/C21)</f>
+        <f t="shared" si="1"/>
         <v>-1.7323937598229686</v>
       </c>
     </row>
@@ -5064,18 +5064,18 @@
         <v>8.1</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>281.25</v>
       </c>
       <c r="C22">
         <v>62</v>
       </c>
       <c r="D22">
-        <f>1/B22</f>
+        <f t="shared" si="0"/>
         <v>3.5555555555555557E-3</v>
       </c>
       <c r="E22">
-        <f>LOG(1/C22)</f>
+        <f t="shared" si="1"/>
         <v>-1.7923916894982539</v>
       </c>
     </row>
@@ -5084,18 +5084,18 @@
         <v>4.8</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>277.95</v>
       </c>
       <c r="C23">
         <v>109</v>
       </c>
       <c r="D23">
-        <f>1/B23</f>
+        <f t="shared" si="0"/>
         <v>3.5977693829825508E-3</v>
       </c>
       <c r="E23">
-        <f>LOG(1/C23)</f>
+        <f t="shared" si="1"/>
         <v>-2.0374264979406238</v>
       </c>
     </row>
